--- a/test/expected/insert_chart.xlsx
+++ b/test/expected/insert_chart.xlsx
@@ -261,10 +261,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>

--- a/test/expected/insert_chart.xlsx
+++ b/test/expected/insert_chart.xlsx
@@ -238,7 +238,7 @@
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>

--- a/test/expected/insert_chart.xlsx
+++ b/test/expected/insert_chart.xlsx
@@ -215,6 +215,24 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>x-axis</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010002"/>
@@ -230,6 +248,24 @@
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>y-axis</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010001"/>

--- a/test/expected/insert_chart.xlsx
+++ b/test/expected/insert_chart.xlsx
@@ -215,6 +215,24 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>x-axis</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010002"/>
@@ -230,6 +248,24 @@
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>y-axis</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010001"/>
@@ -238,7 +274,7 @@
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -261,10 +297,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>

--- a/test/expected/insert_chart.xlsx
+++ b/test/expected/insert_chart.xlsx
@@ -73,6 +73,28 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr baseline="0">
+                <a:latin typeface="Meiryo UI"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:latin typeface="Meiryo UI"/>
+              </a:rPr>
+              <a:t>Score Transition</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -86,6 +108,22 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:latin typeface="Meiryo UI"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="l"/>
+            <c:showVal val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$7</c:f>
@@ -150,6 +188,22 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:latin typeface="Meiryo UI"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="l"/>
+            <c:showVal val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$7</c:f>
@@ -222,10 +276,14 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr baseline="0">
+                    <a:latin typeface="Meiryo UI"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:latin typeface="Meiryo UI"/>
+                  </a:rPr>
                   <a:t>x-axis</a:t>
                 </a:r>
               </a:p>
@@ -235,6 +293,18 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr baseline="0">
+                <a:latin typeface="Meiryo UI"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="50010002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -255,10 +325,14 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr baseline="0">
+                    <a:latin typeface="Meiryo UI"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:latin typeface="Meiryo UI"/>
+                  </a:rPr>
                   <a:t>y-axis</a:t>
                 </a:r>
               </a:p>
@@ -268,6 +342,18 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr baseline="0">
+                <a:latin typeface="Meiryo UI"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="50010001"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -276,6 +362,18 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr>
+              <a:latin typeface="Meiryo UI"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -304,7 +402,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Score Transition"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>

--- a/test/expected/insert_chart.xlsx
+++ b/test/expected/insert_chart.xlsx
@@ -97,8 +97,7 @@
     </c:title>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:stockChart>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -106,7 +105,8 @@
             <c:v>Score 1</c:v>
           </c:tx>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
           </c:marker>
           <c:dLbls>
             <c:txPr>
@@ -186,7 +186,8 @@
             <c:v>Score 2</c:v>
           </c:tx>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
           </c:marker>
           <c:dLbls>
             <c:txPr>
@@ -259,11 +260,10 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:marker val="1"/>
         <c:axId val="50010001"/>
         <c:axId val="50010002"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:stockChart>
+      <c:dateAx>
         <c:axId val="50010001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -291,7 +291,7 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -308,9 +308,8 @@
         <c:crossAx val="50010002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-      </c:catAx>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="50010002"/>
         <c:scaling>

--- a/test/expected/insert_chart.xlsx
+++ b/test/expected/insert_chart.xlsx
@@ -104,9 +104,23 @@
           <c:tx>
             <c:v>Score 1</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="10"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="008000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:txPr>
@@ -185,9 +199,23 @@
           <c:tx>
             <c:v>Score 2</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="800080"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="diamond"/>
             <c:size val="10"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="800080"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:txPr>

--- a/test/expected/insert_chart.xlsx
+++ b/test/expected/insert_chart.xlsx
@@ -105,6 +105,9 @@
             <c:v>Score 1</c:v>
           </c:tx>
           <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="008000"/>
+            </a:solidFill>
             <a:ln>
               <a:solidFill>
                 <a:srgbClr val="008000"/>
@@ -115,6 +118,9 @@
             <c:symbol val="circle"/>
             <c:size val="10"/>
             <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
               <a:ln>
                 <a:solidFill>
                   <a:srgbClr val="008000"/>
@@ -200,6 +206,9 @@
             <c:v>Score 2</c:v>
           </c:tx>
           <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="800080"/>
+            </a:solidFill>
             <a:ln>
               <a:solidFill>
                 <a:srgbClr val="800080"/>
@@ -210,6 +219,9 @@
             <c:symbol val="diamond"/>
             <c:size val="10"/>
             <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="800080"/>
+              </a:solidFill>
               <a:ln>
                 <a:solidFill>
                   <a:srgbClr val="800080"/>

--- a/test/expected/insert_chart.xlsx
+++ b/test/expected/insert_chart.xlsx
@@ -93,7 +93,15 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1"/>
+          <c:y val="0.1"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
     </c:title>
     <c:plotArea>
       <c:layout/>
